--- a/database.xlsx
+++ b/database.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BASIC" sheetId="1" r:id="rId1"/>
+    <sheet name="CONNECTED" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +19,209 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ADMINISTRATOR</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>ADMIN_NAME</t>
+  </si>
+  <si>
+    <t>ADMIN_EMAIL</t>
+  </si>
+  <si>
+    <t>ADMIN_CONTACT_1</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>ADMIN_CONTACT_2</t>
+  </si>
+  <si>
+    <t>ADMIN_MESSAGE</t>
+  </si>
+  <si>
+    <t>TEXTAREA</t>
+  </si>
+  <si>
+    <t>ADMIN_PASSWORD</t>
+  </si>
+  <si>
+    <t>ADMIN_PIN</t>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>CLIENT_NAME</t>
+  </si>
+  <si>
+    <t>CLIENT_EMAIL</t>
+  </si>
+  <si>
+    <t>CLIENT_CONTACT</t>
+  </si>
+  <si>
+    <t>CLIENT_PASSWORD</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>TO MANAGE USER LOGIN (BLOCK/UNBLOCK)</t>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>ADMIN_ID</t>
+  </si>
+  <si>
+    <t>TOURNAMENT</t>
+  </si>
+  <si>
+    <t>CLIENT_TOTAL_SCORE</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_ID</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_NAME</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_START</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_END</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_STATUS</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_SUBSCRIBERS</t>
+  </si>
+  <si>
+    <t>TOTAL NUMBER OF REGISTRAION FOR EACH TOURNAMENT</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_REGISTRATION_TILL</t>
+  </si>
+  <si>
+    <t>REGISTRATION_ID</t>
+  </si>
+  <si>
+    <t>REGISTRATION_DATE</t>
+  </si>
+  <si>
+    <t>REGISTRATION</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t>REGISTRATION_AMOUNT</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_FEES</t>
+  </si>
+  <si>
+    <t>ADMIN_PROFILE_PHOTO</t>
+  </si>
+  <si>
+    <t>IMAGE OR PATH</t>
+  </si>
+  <si>
+    <t>CLIENT_PROFILE_PHOTO</t>
+  </si>
+  <si>
+    <t>IN RUPEES ONLY / POINTS</t>
+  </si>
+  <si>
+    <t>RUPEES / POINTS</t>
+  </si>
+  <si>
+    <t>TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>TRANSACTION</t>
+  </si>
+  <si>
+    <t>TRANSACTION_DATE</t>
+  </si>
+  <si>
+    <t>TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>TRANSACTION_DETAILS</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>CLIENT_SANCTUM_TOKEN</t>
+  </si>
+  <si>
+    <t>TOTAL NUMBER OF TOKENS AVAILABLE</t>
+  </si>
+  <si>
+    <t>SANCTUM_TOKENS_TRANSACTION</t>
+  </si>
+  <si>
+    <t>SANCTUM_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>TRANSACTION_TYPE</t>
+  </si>
+  <si>
+    <t>SANCTUM_TOKEN_BALANCE</t>
+  </si>
+  <si>
+    <t>DEBIT / CREDIT OR (DIRECT NUMBER TO NEGATIVE)</t>
+  </si>
+  <si>
+    <t>ONLY FOR CREDIT</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,12 +245,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,9 +710,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="F9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="F11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="F14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="F15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="F16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="F17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="F18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="F24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="F25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="F28" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D27:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
-    <sheet name="CONNECTED" sheetId="2" r:id="rId2"/>
+    <sheet name="GLOSSARY" sheetId="3" r:id="rId2"/>
+    <sheet name="CONNECTED" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>NAME</t>
   </si>
@@ -79,9 +80,6 @@
     <t>CLIENT_PASSWORD</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
@@ -148,9 +146,6 @@
     <t>REGISTRATION_AMOUNT</t>
   </si>
   <si>
-    <t>TOURNAMENT_FEES</t>
-  </si>
-  <si>
     <t>ADMIN_PROFILE_PHOTO</t>
   </si>
   <si>
@@ -160,12 +155,6 @@
     <t>CLIENT_PROFILE_PHOTO</t>
   </si>
   <si>
-    <t>IN RUPEES ONLY / POINTS</t>
-  </si>
-  <si>
-    <t>RUPEES / POINTS</t>
-  </si>
-  <si>
     <t>TRANSACTION_ID</t>
   </si>
   <si>
@@ -206,6 +195,36 @@
   </si>
   <si>
     <t>ONLY FOR CREDIT</t>
+  </si>
+  <si>
+    <t>FOR RECOVERY</t>
+  </si>
+  <si>
+    <t>CLIENT_STATUS</t>
+  </si>
+  <si>
+    <t>TOKEN</t>
+  </si>
+  <si>
+    <t>IT IS PURCHASE CURRENCY OF SANCTUM</t>
+  </si>
+  <si>
+    <t>TO MANAGE (OPEN / CLOSE)</t>
+  </si>
+  <si>
+    <t>IN RUPEES ONLY / TOKEN</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_TOKEN</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_DETAILS</t>
+  </si>
+  <si>
+    <t>TOURNAMENT_TERMS</t>
+  </si>
+  <si>
+    <t>RUPEES / TOKENS</t>
   </si>
 </sst>
 </file>
@@ -710,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H30"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -747,19 +766,19 @@
         <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>2</v>
@@ -839,13 +858,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -857,29 +876,29 @@
       </c>
       <c r="D9" s="7"/>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7"/>
       <c r="F10" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -889,12 +908,14 @@
       <c r="C11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="F11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="H11" s="14"/>
     </row>
@@ -904,47 +925,47 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="F14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="7"/>
       <c r="F15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>3</v>
@@ -953,220 +974,238 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7"/>
       <c r="F16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7"/>
       <c r="F17" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7"/>
       <c r="F18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F20" s="10" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="F26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="F27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="F24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="F25" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="F28" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="14"/>
+      <c r="G28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="14"/>
+      <c r="B30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="F30" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1174,6 +1213,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/database.xlsx
+++ b/database.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>NAME</t>
   </si>
@@ -225,6 +225,21 @@
   </si>
   <si>
     <t>RUPEES / TOKENS</t>
+  </si>
+  <si>
+    <t>FEEDBACK</t>
+  </si>
+  <si>
+    <t>FEEDBACK_ID</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>USER_EMAIL</t>
+  </si>
+  <si>
+    <t>USER_MESSAGE</t>
   </si>
 </sst>
 </file>
@@ -393,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -448,6 +463,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="B34:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,6 +1226,54 @@
         <v>30</v>
       </c>
       <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
